--- a/Foundations/productivity/ExcelFunctions.xlsx
+++ b/Foundations/productivity/ExcelFunctions.xlsx
@@ -1,30 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://johnabbott-my.sharepoint.com/personal/stephanie_moreau_johnabbott_qc_ca/Documents/Cont Ed/Foundations of Web Development/Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steph/Desktop/Git/FSD-08/Foundations/productivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{F2C9E691-BFE1-4842-A296-7859F6BDF932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AAD00B-6C2D-804F-9C92-63F54786817B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F584F83B-1691-2540-8BE2-4C2999E1ED79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="1140" windowWidth="23340" windowHeight="13660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="1000" windowWidth="25840" windowHeight="15280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="3" r:id="rId1"/>
-    <sheet name="Movies" sheetId="2" r:id="rId2"/>
-    <sheet name="Shirts" sheetId="5" r:id="rId3"/>
-    <sheet name="Marriage" sheetId="4" r:id="rId4"/>
-    <sheet name="Labour" sheetId="6" r:id="rId5"/>
+    <sheet name="Coffee" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId4"/>
+    <sheet name="Movies" sheetId="2" r:id="rId5"/>
+    <sheet name="Shirts" sheetId="5" r:id="rId6"/>
+    <sheet name="Marriage" sheetId="4" r:id="rId7"/>
+    <sheet name="Labour" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="141">
   <si>
     <t>SHORTEST CELEBRITY MARRIAGES</t>
   </si>
@@ -429,17 +445,39 @@
   </si>
   <si>
     <t>Labour total</t>
+  </si>
+  <si>
+    <t>Quote</t>
+  </si>
+  <si>
+    <t>Morning Coffee</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Cups</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Brown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0000000"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -557,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -693,17 +731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -740,7 +767,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -750,7 +777,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -764,58 +791,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -830,12 +831,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,7 +846,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,22 +857,143 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1208,171 +1328,208 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>14</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <v>3</v>
       </c>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="E2" s="23">
+        <f>C2/D2</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G2">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>13</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <v>3</v>
       </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="E3" s="23">
+        <f t="shared" ref="E3:E10" si="0">C3/D3</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>16</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>2</v>
       </c>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="E4" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>16</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>3</v>
       </c>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="E5" s="23">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>17</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>5</v>
       </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>12</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>2</v>
       </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="E7" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>13</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <v>3</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>17</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>5</v>
       </c>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>18</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>5</v>
       </c>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="33" t="s">
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="30">
+        <f>SUM(C2,C3,C4,C5,C6,C7,C8,C9,C10)/SUM(D2:D10)</f>
+        <v>4.387096774193548</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,486 +1537,769 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7E6895-3889-1241-8CCD-78257E3EA6DA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="253" zoomScaleNormal="253" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="35">
-        <v>258000000</v>
-      </c>
-      <c r="C2" s="36">
-        <v>887436184</v>
-      </c>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="35">
-        <v>207000000</v>
-      </c>
-      <c r="C3" s="36">
-        <v>553080025</v>
-      </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="35">
-        <v>204000000</v>
-      </c>
-      <c r="C4" s="36">
-        <v>391081192</v>
-      </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="35">
-        <v>200000000</v>
-      </c>
-      <c r="C5" s="36">
-        <v>784024485</v>
-      </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="35">
-        <v>200000000</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1835400000</v>
-      </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="35">
-        <v>180000000</v>
-      </c>
-      <c r="C7" s="36">
-        <v>748806957</v>
-      </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="35">
-        <v>175000000</v>
-      </c>
-      <c r="C8" s="36">
-        <v>217700000</v>
-      </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="35">
-        <v>175000000</v>
-      </c>
-      <c r="C9" s="36">
-        <v>120698890</v>
-      </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="35">
-        <v>175000000</v>
-      </c>
-      <c r="C10" s="36">
-        <v>264246220</v>
-      </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="35">
-        <v>170000000</v>
-      </c>
-      <c r="C11" s="36">
-        <v>433058296</v>
-      </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="35">
-        <v>170000000</v>
-      </c>
-      <c r="C12" s="36">
-        <v>296596043</v>
-      </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="35">
-        <v>170000000</v>
-      </c>
-      <c r="C13" s="36">
-        <v>300150546</v>
-      </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="35">
-        <v>160000000</v>
-      </c>
-      <c r="C14" s="36">
-        <v>733012359</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="35">
-        <v>160000000</v>
-      </c>
-      <c r="C15" s="36">
-        <v>181674817</v>
-      </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="35">
-        <v>155000000</v>
-      </c>
-      <c r="C16" s="36">
-        <v>167297191</v>
-      </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="35">
-        <v>151500000</v>
-      </c>
-      <c r="C17" s="36">
-        <v>450500000</v>
-      </c>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="35">
-        <v>150000000</v>
-      </c>
-      <c r="C18" s="36">
-        <v>892213036</v>
-      </c>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="35">
-        <v>150000000</v>
-      </c>
-      <c r="C19" s="36">
-        <v>822828538</v>
-      </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="35">
-        <v>150000000</v>
-      </c>
-      <c r="C20" s="36">
-        <v>397501348</v>
-      </c>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="37">
-        <v>150000000</v>
-      </c>
-      <c r="C21" s="38">
-        <v>497298577</v>
-      </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="31"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72">
+        <v>230902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="72">
+        <v>37522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="72"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE9129F-81CF-1D42-A0DC-E67F0EFB15CB}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D477744E-8288-BE4A-8C90-D26B29BC5ECF}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="47">
-        <v>1500</v>
-      </c>
-      <c r="C4" s="47">
-        <v>5.99</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="49"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="47">
-        <v>950</v>
-      </c>
-      <c r="C5" s="47">
-        <v>6.53</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="49"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="47">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="47">
-        <v>2.99</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="49"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="47">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="47">
-        <v>13.56</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="49"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="47">
-        <v>800</v>
-      </c>
-      <c r="C8" s="47">
-        <v>10.75</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="49"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="47">
-        <v>1200</v>
-      </c>
-      <c r="C9" s="47">
-        <v>2.75</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="49"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="47">
-        <v>750</v>
-      </c>
-      <c r="C10" s="47">
-        <v>6.97</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="49"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="47">
-        <v>1100</v>
-      </c>
-      <c r="C11" s="47">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="49"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="50">
-        <v>1700</v>
-      </c>
-      <c r="C12" s="50">
-        <v>5.68</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="49"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1590F-E016-3F48-AA02-041122DCB39D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="62">
+        <v>258000000</v>
+      </c>
+      <c r="C2" s="63">
+        <v>887436184</v>
+      </c>
+      <c r="D2" s="64">
+        <f>C2-B2</f>
+        <v>629436184</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="62">
+        <v>207000000</v>
+      </c>
+      <c r="C3" s="63">
+        <v>553080025</v>
+      </c>
+      <c r="D3" s="64">
+        <f t="shared" ref="D3:D21" si="0">C3-B3</f>
+        <v>346080025</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="62">
+        <v>204000000</v>
+      </c>
+      <c r="C4" s="63">
+        <v>391081192</v>
+      </c>
+      <c r="D4" s="64">
+        <f t="shared" si="0"/>
+        <v>187081192</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="62">
+        <v>200000000</v>
+      </c>
+      <c r="C5" s="63">
+        <v>784024485</v>
+      </c>
+      <c r="D5" s="64">
+        <f t="shared" si="0"/>
+        <v>584024485</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="62">
+        <v>200000000</v>
+      </c>
+      <c r="C6" s="63">
+        <v>1835400000</v>
+      </c>
+      <c r="D6" s="64">
+        <f t="shared" si="0"/>
+        <v>1635400000</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="62">
+        <v>180000000</v>
+      </c>
+      <c r="C7" s="63">
+        <v>748806957</v>
+      </c>
+      <c r="D7" s="64">
+        <f t="shared" si="0"/>
+        <v>568806957</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="62">
+        <v>175000000</v>
+      </c>
+      <c r="C8" s="63">
+        <v>217700000</v>
+      </c>
+      <c r="D8" s="64">
+        <f t="shared" si="0"/>
+        <v>42700000</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="62">
+        <v>175000000</v>
+      </c>
+      <c r="C9" s="63">
+        <v>120698890</v>
+      </c>
+      <c r="D9" s="64">
+        <f t="shared" si="0"/>
+        <v>-54301110</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="62">
+        <v>175000000</v>
+      </c>
+      <c r="C10" s="63">
+        <v>264246220</v>
+      </c>
+      <c r="D10" s="64">
+        <f t="shared" si="0"/>
+        <v>89246220</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="62">
+        <v>170000000</v>
+      </c>
+      <c r="C11" s="63">
+        <v>433058296</v>
+      </c>
+      <c r="D11" s="64">
+        <f t="shared" si="0"/>
+        <v>263058296</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="62">
+        <v>170000000</v>
+      </c>
+      <c r="C12" s="63">
+        <v>296596043</v>
+      </c>
+      <c r="D12" s="64">
+        <f t="shared" si="0"/>
+        <v>126596043</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="62">
+        <v>170000000</v>
+      </c>
+      <c r="C13" s="63">
+        <v>300150546</v>
+      </c>
+      <c r="D13" s="64">
+        <f t="shared" si="0"/>
+        <v>130150546</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="62">
+        <v>160000000</v>
+      </c>
+      <c r="C14" s="63">
+        <v>733012359</v>
+      </c>
+      <c r="D14" s="64">
+        <f t="shared" si="0"/>
+        <v>573012359</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="62">
+        <v>160000000</v>
+      </c>
+      <c r="C15" s="63">
+        <v>181674817</v>
+      </c>
+      <c r="D15" s="64">
+        <f t="shared" si="0"/>
+        <v>21674817</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="62">
+        <v>155000000</v>
+      </c>
+      <c r="C16" s="63">
+        <v>167297191</v>
+      </c>
+      <c r="D16" s="64">
+        <f t="shared" si="0"/>
+        <v>12297191</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="62">
+        <v>151500000</v>
+      </c>
+      <c r="C17" s="63">
+        <v>450500000</v>
+      </c>
+      <c r="D17" s="64">
+        <f t="shared" si="0"/>
+        <v>299000000</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="62">
+        <v>150000000</v>
+      </c>
+      <c r="C18" s="63">
+        <v>892213036</v>
+      </c>
+      <c r="D18" s="64">
+        <f t="shared" si="0"/>
+        <v>742213036</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="62">
+        <v>150000000</v>
+      </c>
+      <c r="C19" s="63">
+        <v>822828538</v>
+      </c>
+      <c r="D19" s="64">
+        <f t="shared" si="0"/>
+        <v>672828538</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="62">
+        <v>150000000</v>
+      </c>
+      <c r="C20" s="63">
+        <v>397501348</v>
+      </c>
+      <c r="D20" s="64">
+        <f t="shared" si="0"/>
+        <v>247501348</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="65">
+        <v>150000000</v>
+      </c>
+      <c r="C21" s="66">
+        <v>497298577</v>
+      </c>
+      <c r="D21" s="64">
+        <f t="shared" si="0"/>
+        <v>347298577</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="67">
+        <f>MAX(D2:D21)</f>
+        <v>1635400000</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP(D23,D2:E21,2, FALSE)</f>
+        <v>Titanic</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="67">
+        <f>MIN(D2:D21)</f>
+        <v>-54301110</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE9129F-81CF-1D42-A0DC-E67F0EFB15CB}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="35">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="57">
+        <v>5.99</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="60">
+        <f>B4*C4</f>
+        <v>8985</v>
+      </c>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="35">
+        <v>950</v>
+      </c>
+      <c r="C5" s="57">
+        <v>6.53</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="60">
+        <f t="shared" ref="E5:E12" si="0">B5*C5</f>
+        <v>6203.5</v>
+      </c>
+      <c r="H5" s="59"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="57">
+        <v>2.99</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="60">
+        <f t="shared" si="0"/>
+        <v>5980</v>
+      </c>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="35">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="57">
+        <v>13.56</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="60">
+        <f t="shared" si="0"/>
+        <v>54240</v>
+      </c>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="35">
+        <v>800</v>
+      </c>
+      <c r="C8" s="57">
+        <v>10.75</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="60">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="35">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="57">
+        <v>2.75</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="60">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="35">
+        <v>750</v>
+      </c>
+      <c r="C10" s="57">
+        <v>6.97</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="60">
+        <f t="shared" si="0"/>
+        <v>5227.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="35">
+        <v>1100</v>
+      </c>
+      <c r="C11" s="57">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="60">
+        <f t="shared" si="0"/>
+        <v>10593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="37">
+        <v>1700</v>
+      </c>
+      <c r="C12" s="58">
+        <v>5.68</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="60">
+        <f t="shared" si="0"/>
+        <v>9656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="61">
+        <f>SUM(E4:E12)</f>
+        <v>112785</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:D12">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Black">
+      <formula>NOT(ISERROR(SEARCH("Black",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Blue">
+      <formula>NOT(ISERROR(SEARCH("Blue",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="White">
+      <formula>NOT(ISERROR(SEARCH("White",D4)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Bl">
+      <formula>LEFT(D4,LEN("Bl"))="Bl"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1869,18 +2309,20 @@
     <col min="3" max="3" width="16.1640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1896,8 +2338,11 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1913,8 +2358,12 @@
       <c r="E3" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="68" t="str">
+        <f>IF(E3&gt;100,"Wow","Uhoh")</f>
+        <v>Uhoh</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1930,8 +2379,12 @@
       <c r="E4" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F15" si="0">IF(E4&gt;100,"Wow","Uhoh")</f>
+        <v>Wow</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1947,8 +2400,12 @@
       <c r="E5" s="4">
         <v>273</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Wow</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1964,8 +2421,12 @@
       <c r="E6" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Wow</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1981,8 +2442,12 @@
       <c r="E7" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Wow</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1998,8 +2463,12 @@
       <c r="E8" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Wow</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2015,8 +2484,12 @@
       <c r="E9" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Uhoh</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -2032,8 +2505,12 @@
       <c r="E10" s="2">
         <v>153</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Wow</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -2049,8 +2526,12 @@
       <c r="E11" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Uhoh</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2066,8 +2547,12 @@
       <c r="E12" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Uhoh</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2083,8 +2568,12 @@
       <c r="E13" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Uhoh</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -2100,8 +2589,12 @@
       <c r="E14" s="2">
         <v>245</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Wow</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -2117,54 +2610,61 @@
       <c r="E15" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Uhoh</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="7"/>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="9">
+        <f>AVERAGE(E3:E15)</f>
+        <v>105.18846153846154</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="7"/>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28F91A-1E19-DC4B-8EC9-03190883CF4B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2172,159 +2672,195 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="47">
         <v>4</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="63">
+      <c r="C2" s="48">
+        <f>B2*E$2</f>
+        <v>200</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="49">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="50">
         <v>0.5</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="C3" s="48">
+        <f t="shared" ref="C3:C12" si="0">B3*E$2</f>
+        <v>25</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="50">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="C4" s="48">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="C5" s="48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="50">
         <v>7.5</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="C6" s="48">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="50">
         <v>0.5</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="C7" s="48">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="50">
         <v>2</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="C8" s="48">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="C9" s="48">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="50">
         <v>0.5</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="C10" s="48">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="50">
         <v>3</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="C11" s="48">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="52">
         <v>2</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="68" t="s">
+      <c r="C12" s="48">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
